--- a/test_info_2.xlsx
+++ b/test_info_2.xlsx
@@ -508,10 +508,10 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1608,10 +1608,10 @@
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1633,10 +1633,10 @@
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
